--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672975.144124096</v>
+        <v>2671087.562607693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>327.2420467373208</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1356101965862</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>10.96024459354296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>84.45262105857549</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.7659541175189</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974905</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>57.56452900498748</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249383</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>155.1785269041316</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193528</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>31.44776415445344</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17.29855725687363</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433768</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.226430323730483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.8666995316642</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>58.19095390327369</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>5.322702126632319</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.3928440046405</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.7879015331887</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>558.825384592777</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>558.825384592777</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.946621408918</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1606.946621408918</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>1221.158368810674</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>810.1724640210666</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>392.2086559192535</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>65.01393595525633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>642.8233063694895</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>642.8233063694895</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>642.8233063694895</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>837.1179892781316</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362315</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5130,16 +5130,16 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,49 +5276,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>943.017270764214</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247856</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>807.3897550529355</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>807.3897550529354</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>807.3897550529354</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>579.400204154918</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.400204154918</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>310.6051391271014</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>310.6051391271014</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>160.4884997147659</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765188</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>754.3167881386869</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W19" t="n">
-        <v>464.8996181017263</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X19" t="n">
-        <v>464.8996181017263</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>310.6051391271014</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,25 +5762,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466634</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407766</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967966</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>509.2863307027308</v>
+        <v>450.0103882072906</v>
       </c>
       <c r="C25" t="n">
-        <v>509.2863307027308</v>
+        <v>281.0742052793837</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>281.0742052793837</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>133.1611116969906</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3177283550796</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="X25" t="n">
-        <v>730.0789098462609</v>
+        <v>670.8029673508207</v>
       </c>
       <c r="Y25" t="n">
-        <v>509.2863307027308</v>
+        <v>450.0103882072906</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.5778825909698</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.2377347729993</v>
+        <v>439.5324299542188</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264629</v>
+        <v>434.1559631596407</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264629</v>
+        <v>339.8001890286758</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264629</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264629</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1914.517129718052</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1770.357984914975</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1602.333434985851</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1368.965661480781</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1170.042038556265</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>936.3857338006745</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>764.1570481840279</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.1253343218683</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,52 +6698,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,10 +7591,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
         <v>772.288612901031</v>
@@ -7637,10 +7637,10 @@
         <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7743,7 +7743,7 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291358</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256809</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167178</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>52.85471645928451</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165273</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.08849621799504</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>131.0588254944458</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560084</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>220.6898791693746</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3169157613387</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>75.26883114644325</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.9089884290399</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>224.4832250653067</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.96528065027305</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>163.3566071551156</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434384</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.36825177059539</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827902.1506214036</v>
+        <v>827902.1506214037</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="D2" t="n">
+        <v>615781.3273982131</v>
+      </c>
+      <c r="E2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065624</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>610233.2060179046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="N2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982127</v>
-      </c>
-      <c r="E2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="K2" t="n">
-        <v>610233.206017905</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615781.3273982123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="P2" t="n">
         <v>615781.3273982127</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284553</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563557</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,16 +26482,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,13 +26500,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309641</v>
+        <v>-213820.588130964</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835805</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835806</v>
+        <v>376147.291083581</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048865</v>
+        <v>-45746.90156646144</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364071</v>
+        <v>479413.1349104345</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364074</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364073</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364075</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438145</v>
+        <v>302989.9157178421</v>
       </c>
       <c r="K6" t="n">
-        <v>436232.1000492012</v>
+        <v>436213.6063112661</v>
       </c>
       <c r="L6" t="n">
-        <v>470258.8579145602</v>
+        <v>470258.8579145608</v>
       </c>
       <c r="M6" t="n">
-        <v>345800.7494815905</v>
+        <v>345800.74948159</v>
       </c>
       <c r="N6" t="n">
-        <v>480601.7647154278</v>
+        <v>480601.7647154276</v>
       </c>
       <c r="O6" t="n">
-        <v>480601.7647154276</v>
+        <v>480601.7647154275</v>
       </c>
       <c r="P6" t="n">
-        <v>436439.1594125821</v>
+        <v>436439.159412582</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,25 +26750,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108376</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>54.688323334941</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>27.38738814000482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>140.9710716513183</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>202.0703772780155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9678875459617</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>397.3927609030888</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>522.1296519817051</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>484.8867074649025</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.299348501792</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686866</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38193,7 +38193,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
